--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t xml:space="preserve">A1CF</t>
   </si>
@@ -526,396 +526,6 @@
   </si>
   <si>
     <t xml:space="preserve">CLK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD2BP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CWC25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM14A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM14B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGOHB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAA38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPIL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNU13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCAS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUD13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUD31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9orf78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCAR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDK10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHERP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRNKL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTNNBL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CWC15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CWC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CWC27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEEP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX39B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHX15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHX16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHX35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHX8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFTUD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF4A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM32A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM50A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRA10AC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPATCH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPKOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCNN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISY1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAB43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHF5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLRG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPIL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPIL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPWD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PQBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF38A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUF60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF113A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNU2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNU4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNU5A-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNU6-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SART1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR5A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3B5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLU7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMNDC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMU1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRNP200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRNP40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUGP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFIP11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THRAP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXNL4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2SURP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USP39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBP11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDR83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZMAT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF830</t>
   </si>
   <si>
     <t xml:space="preserve">gene</t>
@@ -2100,677 +1710,42 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2789,25 +1764,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
@@ -4391,7 +3366,7 @@
         <v>6.12187278800648</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00000000092481848492131</v>
+        <v>0.000000000924818484921309</v>
       </c>
       <c r="G70" t="n">
         <v>0.000000012716254167668</v>

--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t xml:space="preserve">A1CF</t>
   </si>
@@ -526,6 +526,396 @@
   </si>
   <si>
     <t xml:space="preserve">CLK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD2BP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWC25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM14A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM14B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGOHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAA38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNU13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNU11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCAS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUD13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUD31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9orf78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRNKL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTNNBL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWC15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWC22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWC27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX39B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHX15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHX16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHX35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHX8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFTUD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM32A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM50A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRA10AC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPATCH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPKOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHF5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPWD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF38A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUF60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF113A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNU2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNU4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNU5A-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNU6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SART1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR5A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLU7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMNDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMU1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRNP200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRNP40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUGP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFIP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRAP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXNL4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2SURP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZMAT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF830</t>
   </si>
   <si>
     <t xml:space="preserve">gene</t>
@@ -1710,42 +2100,677 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1764,25 +2789,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">

--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -4391,7 +4391,7 @@
         <v>6.12187278800648</v>
       </c>
       <c r="F70" t="n">
-        <v>0.000000000924818484921309</v>
+        <v>0.00000000092481848492131</v>
       </c>
       <c r="G70" t="n">
         <v>0.000000012716254167668</v>

--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -4391,7 +4391,7 @@
         <v>6.12187278800648</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00000000092481848492131</v>
+        <v>0.000000000924818484921309</v>
       </c>
       <c r="G70" t="n">
         <v>0.000000012716254167668</v>

--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -2815,22 +2815,22 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>26101.3687736019</v>
+        <v>25501.8265795629</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.320644871996867</v>
+        <v>-0.28486033074955</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0943999599831952</v>
+        <v>0.102084953343029</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.39666321949656</v>
+        <v>-2.79042426352836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000682128629495445</v>
+        <v>0.00526390139382318</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00216444661282208</v>
+        <v>0.013786408412394</v>
       </c>
     </row>
     <row r="3">
@@ -2838,22 +2838,22 @@
         <v>65</v>
       </c>
       <c r="B3" t="n">
-        <v>20406.5799129285</v>
+        <v>20695.6001039469</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.44317046328538</v>
+        <v>-0.426390198265857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107789715153888</v>
+        <v>0.110143240096675</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.11143551731888</v>
+        <v>-3.87123347644035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000393206697041356</v>
+        <v>0.000108286012100656</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000175348932464388</v>
+        <v>0.000438996937403204</v>
       </c>
     </row>
     <row r="4">
@@ -2861,22 +2861,22 @@
         <v>48</v>
       </c>
       <c r="B4" t="n">
-        <v>29509.0486458093</v>
+        <v>29148.7582539013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253861013204767</v>
+        <v>0.231544677088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0911934597768839</v>
+        <v>0.0976308004847728</v>
       </c>
       <c r="E4" t="n">
-        <v>2.7837633732273</v>
+        <v>2.37163554880525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0053732218589672</v>
+        <v>0.01770954947492</v>
       </c>
       <c r="G4" t="n">
-        <v>0.013639717026609</v>
+        <v>0.0389610088448241</v>
       </c>
     </row>
     <row r="5">
@@ -2884,22 +2884,22 @@
         <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>16345.9036910911</v>
+        <v>16688.0680055958</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.307481487538994</v>
+        <v>-0.340384718212967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.116154256875696</v>
+        <v>0.119130831058126</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.64718225409552</v>
+        <v>-2.85723448069365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00811655960825656</v>
+        <v>0.00427350011746937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0194091642806135</v>
+        <v>0.0117521253230408</v>
       </c>
     </row>
     <row r="6">
@@ -2907,22 +2907,22 @@
         <v>157</v>
       </c>
       <c r="B6" t="n">
-        <v>15962.0375344305</v>
+        <v>16405.0773212242</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.0461554216428</v>
+        <v>-1.04360383742142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17161638799629</v>
+        <v>0.166829842637553</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.09589465118805</v>
+        <v>-6.25549854224045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000000010882706916547</v>
+        <v>0.000000000396248043756506</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0000000138126664710019</v>
+        <v>0.00000000653809272198235</v>
       </c>
     </row>
     <row r="7">
@@ -2930,22 +2930,22 @@
         <v>43</v>
       </c>
       <c r="B7" t="n">
-        <v>17505.6204180942</v>
+        <v>17414.5937188474</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.420512533871336</v>
+        <v>-0.419120116778896</v>
       </c>
       <c r="D7" t="n">
-        <v>0.076045050857833</v>
+        <v>0.085349200757349</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.52978174289723</v>
+        <v>-4.91065075079578</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000000320629456790397</v>
+        <v>0.00000090774638508023</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000000311199178649503</v>
+        <v>0.00000599112614152951</v>
       </c>
     </row>
     <row r="8">
@@ -2953,22 +2953,22 @@
         <v>123</v>
       </c>
       <c r="B8" t="n">
-        <v>14915.0307671193</v>
+        <v>14860.574103417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.319300362366395</v>
+        <v>0.286745621567734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10636663964766</v>
+        <v>0.110624128498928</v>
       </c>
       <c r="E8" t="n">
-        <v>3.00188445760887</v>
+        <v>2.59207123670596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00268313993821384</v>
+        <v>0.00954000151895275</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00776698403167165</v>
+        <v>0.0234940335914508</v>
       </c>
     </row>
     <row r="9">
@@ -2976,22 +2976,22 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>10929.9070006073</v>
+        <v>10807.1048507377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32617556054346</v>
+        <v>0.304817539099174</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0988350871706488</v>
+        <v>0.107033727503979</v>
       </c>
       <c r="E9" t="n">
-        <v>3.30020005931987</v>
+        <v>2.84786437142296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000966159280295343</v>
+        <v>0.00440136775912038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00300785436318361</v>
+        <v>0.0119053390205715</v>
       </c>
     </row>
     <row r="10">
@@ -2999,22 +2999,22 @@
         <v>122</v>
       </c>
       <c r="B10" t="n">
-        <v>13055.1164126614</v>
+        <v>12949.5559155795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217501549450451</v>
+        <v>0.27632446027973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0810060693694142</v>
+        <v>0.0862919089241126</v>
       </c>
       <c r="E10" t="n">
-        <v>2.68500312561239</v>
+        <v>3.20220590464323</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00725291279225187</v>
+        <v>0.00136379477788508</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0175989795694347</v>
+        <v>0.00432742573751998</v>
       </c>
     </row>
     <row r="11">
@@ -3022,1011 +3022,1011 @@
         <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>11260.7603226445</v>
+        <v>11521.5617377986</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.560469990592832</v>
+        <v>-0.645919340064891</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119736766553321</v>
+        <v>0.112204696591984</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.68085122662173</v>
+        <v>-5.75661589651351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00000285686210198414</v>
+        <v>0.00000000858168714636278</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0000168350802438351</v>
+        <v>0.000000101141312796418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B12" t="n">
-        <v>8552.93893300786</v>
+        <v>9386.93094586632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.738463907975456</v>
+        <v>-0.274459278364716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.10187530835006</v>
+        <v>0.106746707967673</v>
       </c>
       <c r="E12" t="n">
-        <v>7.24870353705308</v>
+        <v>-2.5711263943412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000000000420779752875348</v>
+        <v>0.0101368323270513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000000000138857318448865</v>
+        <v>0.0245967254994628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B13" t="n">
-        <v>6545.29220362266</v>
+        <v>8263.16884720097</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.617603512193518</v>
+        <v>0.744304822208619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.169756776215262</v>
+        <v>0.110247896849414</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.63816706444967</v>
+        <v>6.75119293409521</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000274585294493193</v>
+        <v>0.0000000000146634451827013</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000963969650880358</v>
+        <v>0.000000000403244742524285</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B14" t="n">
-        <v>7788.35265748879</v>
+        <v>6815.90432702727</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.269208862320926</v>
+        <v>-0.612000231618727</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0785002198798365</v>
+        <v>0.173660084922466</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.42940265305008</v>
+        <v>-3.52412721606101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00060491138537739</v>
+        <v>0.000424880204529193</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00201023687707711</v>
+        <v>0.0014605257030691</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>6037.8662283942</v>
+        <v>7868.20529983234</v>
       </c>
       <c r="C15" t="n">
-        <v>0.680262606662735</v>
+        <v>-0.308777961962955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.118735759279534</v>
+        <v>0.0787228444338636</v>
       </c>
       <c r="E15" t="n">
-        <v>5.72921427201407</v>
+        <v>-3.92234254470269</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0000000100896882091834</v>
+        <v>0.0000876921997101429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000000104049909657204</v>
+        <v>0.000371005460312143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B16" t="n">
-        <v>6392.2732441883</v>
+        <v>6029.45278303687</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.656231233593794</v>
+        <v>0.70361209277451</v>
       </c>
       <c r="D16" t="n">
-        <v>0.168956386558474</v>
+        <v>0.131326019017449</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.88402739287205</v>
+        <v>5.35775087099095</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000102740324942023</v>
+        <v>0.0000000842643199695743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00044610930566931</v>
+        <v>0.000000772422933054431</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="B17" t="n">
-        <v>5658.72900733722</v>
+        <v>6551.70424165898</v>
       </c>
       <c r="C17" t="n">
-        <v>0.553461333406723</v>
+        <v>-0.712083083314972</v>
       </c>
       <c r="D17" t="n">
-        <v>0.127128150096726</v>
+        <v>0.16836305450054</v>
       </c>
       <c r="E17" t="n">
-        <v>4.35357025950288</v>
+        <v>-4.22944977701559</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0000133938142267016</v>
+        <v>0.0000234263567948354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000649993925707576</v>
+        <v>0.000124688673262833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="B18" t="n">
-        <v>10159.0121177212</v>
+        <v>5383.69704941705</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.653207747066494</v>
+        <v>0.54290699594196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.127420021227214</v>
+        <v>0.13564723284558</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.12641373604626</v>
+        <v>4.00234479209761</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000000295313269579978</v>
+        <v>0.0000627178101666841</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00000211855171655202</v>
+        <v>0.000279687531824402</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>7828.91681356331</v>
+        <v>10199.4907545668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.425228745844801</v>
+        <v>-0.699843922050673</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0938355233717226</v>
+        <v>0.122648515607729</v>
       </c>
       <c r="E19" t="n">
-        <v>4.53163930423544</v>
+        <v>-5.70609369858995</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00000585277219238843</v>
+        <v>0.0000000115598379532899</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0000301783566170028</v>
+        <v>0.000000127158217486189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B20" t="n">
-        <v>5838.82063149871</v>
+        <v>4568.28164005053</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.34146023304903</v>
+        <v>-0.204419535012658</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0997802843273654</v>
+        <v>0.0761943636777286</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.42212126725101</v>
+        <v>-2.68286950826534</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000621345943823836</v>
+        <v>0.00729934655548909</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00201023687707711</v>
+        <v>0.0182483663887227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="B21" t="n">
-        <v>5858.76044760758</v>
+        <v>7765.12516297977</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.377563712654433</v>
+        <v>0.4690347030232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0724911021698273</v>
+        <v>0.10003573022973</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.20841456886532</v>
+        <v>4.68867175704193</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000000190461007181549</v>
+        <v>0.00000274984059133573</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00000157130330924778</v>
+        <v>0.0000168045813914961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B22" t="n">
-        <v>6492.75220268824</v>
+        <v>5909.74574598568</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.336171020685455</v>
+        <v>-0.34844790343448</v>
       </c>
       <c r="D22" t="n">
-        <v>0.094032062649308</v>
+        <v>0.102454204781124</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.57506802694739</v>
+        <v>-3.40101125355351</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000350136843850771</v>
+        <v>0.000671370639216036</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00120359540073702</v>
+        <v>0.00226073786674787</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>7582.75983597927</v>
+        <v>5845.03864393951</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280405437776756</v>
+        <v>-0.391796618290595</v>
       </c>
       <c r="D23" t="n">
-        <v>0.107609136674634</v>
+        <v>0.0764905534635966</v>
       </c>
       <c r="E23" t="n">
-        <v>2.60577722711955</v>
+        <v>-5.12215692722185</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0091666059445717</v>
+        <v>0.000000302060337126946</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0204390537953288</v>
+        <v>0.0000022654525284521</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>5053.08820766381</v>
+        <v>6495.8385436561</v>
       </c>
       <c r="C24" t="n">
-        <v>0.848808958853837</v>
+        <v>-0.315110190685836</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116343699251245</v>
+        <v>0.103155252088844</v>
       </c>
       <c r="E24" t="n">
-        <v>7.2957019960387</v>
+        <v>-3.05471785784056</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000000000000297105858505992</v>
+        <v>0.00225272336096812</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0000000000122556166633722</v>
+        <v>0.00654847399428835</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>4968.98096905882</v>
+        <v>7553.15867871537</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.704201131123144</v>
+        <v>0.314619696519195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.131812820797718</v>
+        <v>0.114641497745895</v>
       </c>
       <c r="E25" t="n">
-        <v>-5.34243275321313</v>
+        <v>2.74437880440601</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0000000917073970980957</v>
+        <v>0.00606255357631303</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000000796406343220304</v>
+        <v>0.0153895590783331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B26" t="n">
-        <v>6037.40182141618</v>
+        <v>4972.61765659095</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245915742698798</v>
+        <v>0.824856401586166</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0937105128081939</v>
+        <v>0.124580630803471</v>
       </c>
       <c r="E26" t="n">
-        <v>2.62420656263121</v>
+        <v>6.62106457694372</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00868510944818803</v>
+        <v>0.0000000000356621123419657</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0197813052325579</v>
+        <v>0.000000000735531067053043</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>6754.69586959233</v>
+        <v>5017.6527590683</v>
       </c>
       <c r="C27" t="n">
-        <v>0.564117607978774</v>
+        <v>-0.669554728260069</v>
       </c>
       <c r="D27" t="n">
-        <v>0.149189901514856</v>
+        <v>0.141937213940025</v>
       </c>
       <c r="E27" t="n">
-        <v>3.78120504304106</v>
+        <v>-4.71725990438975</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000156071060201751</v>
+        <v>0.00000239042239267024</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000613136307935451</v>
+        <v>0.0000151699882611765</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="B28" t="n">
-        <v>8343.65883532118</v>
+        <v>5984.11982533437</v>
       </c>
       <c r="C28" t="n">
-        <v>0.429748378937869</v>
+        <v>0.263942695204863</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0744855863391361</v>
+        <v>0.102874181920445</v>
       </c>
       <c r="E28" t="n">
-        <v>5.76955086291737</v>
+        <v>2.56568451167832</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00000000794830861443028</v>
+        <v>0.0102972438650351</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0000000874313947587331</v>
+        <v>0.0246238440250839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B29" t="n">
-        <v>4839.73557895629</v>
+        <v>6508.47444590143</v>
       </c>
       <c r="C29" t="n">
-        <v>0.357828685579695</v>
+        <v>0.624061929836113</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12971808154835</v>
+        <v>0.162326470186866</v>
       </c>
       <c r="E29" t="n">
-        <v>2.75851046599329</v>
+        <v>3.84448654072074</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00580654457885604</v>
+        <v>0.00012080511486437</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0142996993359888</v>
+        <v>0.000474591522681452</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>5636.50703973795</v>
+        <v>8321.27248764713</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235933122881603</v>
+        <v>0.442310140569998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0629181301951199</v>
+        <v>0.0811023185133643</v>
       </c>
       <c r="E30" t="n">
-        <v>3.74984320338088</v>
+        <v>5.45372991398653</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000176945174536707</v>
+        <v>0.00000004932410049513</v>
       </c>
       <c r="G30" t="n">
-        <v>0.000678975669733877</v>
+        <v>0.000000508654786356028</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B31" t="n">
-        <v>7503.30920572673</v>
+        <v>4920.33259087013</v>
       </c>
       <c r="C31" t="n">
-        <v>0.92461771642745</v>
+        <v>0.319553441377209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.191046005238553</v>
+        <v>0.130514142909693</v>
       </c>
       <c r="E31" t="n">
-        <v>4.83976472197316</v>
+        <v>2.44842002753923</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00000129992931399238</v>
+        <v>0.0143484278729527</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00000857953347234972</v>
+        <v>0.0333449380146083</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B32" t="n">
-        <v>6691.15160148343</v>
+        <v>5575.57940475616</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.652896923648559</v>
+        <v>0.253932790059736</v>
       </c>
       <c r="D32" t="n">
-        <v>0.100742092586346</v>
+        <v>0.0656251460156301</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.48087514252257</v>
+        <v>3.86944342949357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0000000000911921146224235</v>
+        <v>0.000109084087475948</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00000000150466989126999</v>
+        <v>0.000438996937403204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B33" t="n">
-        <v>5283.51300542523</v>
+        <v>7418.80078016357</v>
       </c>
       <c r="C33" t="n">
-        <v>0.864877195527324</v>
+        <v>0.81647196319394</v>
       </c>
       <c r="D33" t="n">
-        <v>0.118218880489231</v>
+        <v>0.205690452116544</v>
       </c>
       <c r="E33" t="n">
-        <v>7.31589735876505</v>
+        <v>3.9694208204245</v>
       </c>
       <c r="F33" t="n">
-        <v>0.000000000000255667036045349</v>
+        <v>0.0000720475426423695</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0000000000122556166633722</v>
+        <v>0.000312838014105025</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B34" t="n">
-        <v>8315.71925219351</v>
+        <v>6570.20597306878</v>
       </c>
       <c r="C34" t="n">
-        <v>0.408216518832235</v>
+        <v>-0.649408768074495</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0900382095710964</v>
+        <v>0.112425234453179</v>
       </c>
       <c r="E34" t="n">
-        <v>4.53381426370875</v>
+        <v>-5.77636125228586</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00000579279723848457</v>
+        <v>0.00000000763333923364344</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0000301783566170028</v>
+        <v>0.000000098348886820305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B35" t="n">
-        <v>2610.72893512795</v>
+        <v>5103.28110596041</v>
       </c>
       <c r="C35" t="n">
-        <v>0.825298923926777</v>
+        <v>0.897933629558396</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170228105005038</v>
+        <v>0.126731985296843</v>
       </c>
       <c r="E35" t="n">
-        <v>4.84819427380898</v>
+        <v>7.08529600838475</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00000124590357214426</v>
+        <v>0.00000000000138747409059672</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00000856558705849178</v>
+        <v>0.0000000000572333062371146</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B36" t="n">
-        <v>4239.87946010442</v>
+        <v>8011.47950747092</v>
       </c>
       <c r="C36" t="n">
-        <v>0.962758260633185</v>
+        <v>0.461865811073516</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133428433442221</v>
+        <v>0.0927732464575346</v>
       </c>
       <c r="E36" t="n">
-        <v>7.21554046461989</v>
+        <v>4.97843752061568</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00000000000053720182682082</v>
+        <v>0.000000640996282396214</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0000000000147730502375725</v>
+        <v>0.00000440684944147397</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B37" t="n">
-        <v>5490.96757355454</v>
+        <v>2572.4781615819</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.414576823651898</v>
+        <v>0.830334820385539</v>
       </c>
       <c r="D37" t="n">
-        <v>0.139625311898119</v>
+        <v>0.187908486953006</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.96920965128733</v>
+        <v>4.4188255349701</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00298566818143302</v>
+        <v>0.00000992387156451011</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0082105874989408</v>
+        <v>0.0000564634071773851</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="B38" t="n">
-        <v>5727.48462080383</v>
+        <v>4231.76493841088</v>
       </c>
       <c r="C38" t="n">
-        <v>0.311653358229458</v>
+        <v>0.985703439872193</v>
       </c>
       <c r="D38" t="n">
-        <v>0.091044112714021</v>
+        <v>0.143315987268341</v>
       </c>
       <c r="E38" t="n">
-        <v>3.42310281180282</v>
+        <v>6.87783309217687</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000619106561912963</v>
+        <v>0.00000000000607698093834262</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00201023687707711</v>
+        <v>0.000000000200540370965306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="B39" t="n">
-        <v>4513.92233347315</v>
+        <v>5609.09778389332</v>
       </c>
       <c r="C39" t="n">
-        <v>0.552383442619309</v>
+        <v>-0.472191420759123</v>
       </c>
       <c r="D39" t="n">
-        <v>0.116112404948672</v>
+        <v>0.144270747624673</v>
       </c>
       <c r="E39" t="n">
-        <v>4.75731635102633</v>
+        <v>-3.27295330850819</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00000196183597310722</v>
+        <v>0.00106430057411887</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0000122972617888901</v>
+        <v>0.00344332538685519</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>6138.0845041412</v>
+        <v>5570.21128549105</v>
       </c>
       <c r="C40" t="n">
-        <v>0.79114272895547</v>
+        <v>0.294494063052769</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1110900656496</v>
+        <v>0.0994137710645875</v>
       </c>
       <c r="E40" t="n">
-        <v>7.12163346316575</v>
+        <v>2.96230652855369</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0000000000010665538563354</v>
+        <v>0.00305343636123773</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0000000000219976732869175</v>
+        <v>0.0086864999931763</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>3455.48134708963</v>
+        <v>4505.28215180821</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.581989006843909</v>
+        <v>0.537296533517694</v>
       </c>
       <c r="D41" t="n">
-        <v>0.131232719747215</v>
+        <v>0.12818653219907</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.43478583667973</v>
+        <v>4.19152093671812</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00000921638631426906</v>
+        <v>0.0000277090611750379</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0000460819315713453</v>
+        <v>0.000134470443937684</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B42" t="n">
-        <v>3908.76550768387</v>
+        <v>5989.31691729382</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.835382921930793</v>
+        <v>0.773449188600331</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116903381447173</v>
+        <v>0.121335303426986</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.14592607664039</v>
+        <v>6.37447772210631</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00000000000089391159326436</v>
+        <v>0.000000000183587498912103</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0000000000210707732698028</v>
+        <v>0.00000000336577081338856</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="B43" t="n">
-        <v>3567.79988832868</v>
+        <v>3527.36388485117</v>
       </c>
       <c r="C43" t="n">
-        <v>0.288994825256791</v>
+        <v>-0.583774938555082</v>
       </c>
       <c r="D43" t="n">
-        <v>0.118083436095039</v>
+        <v>0.135936363355528</v>
       </c>
       <c r="E43" t="n">
-        <v>2.4473781828655</v>
+        <v>-4.29447223792707</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0143899759817599</v>
+        <v>0.000017510939082998</v>
       </c>
       <c r="G43" t="n">
-        <v>0.030691744428695</v>
+        <v>0.0000963101649564891</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B44" t="n">
-        <v>4232.39436341965</v>
+        <v>3943.99559274436</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.441265168174495</v>
+        <v>-0.862327283372618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.116032667170182</v>
+        <v>0.119938245484676</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.80293911133924</v>
+        <v>-7.18976069633098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000142989509081112</v>
+        <v>0.000000000000649049795925285</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000589831724959585</v>
+        <v>0.0000000000356977387758907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B45" t="n">
-        <v>3437.68351284455</v>
+        <v>2413.33357173812</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.441552937647407</v>
+        <v>0.24532293746394</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17225875166704</v>
+        <v>0.101656292473663</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.56331207195144</v>
+        <v>2.41325875156719</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0103678811652116</v>
+        <v>0.0158105907878572</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0225092156876304</v>
+        <v>0.0352944936432244</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B46" t="n">
-        <v>3227.37942131371</v>
+        <v>4262.89123871367</v>
       </c>
       <c r="C46" t="n">
-        <v>0.774646108424899</v>
+        <v>-0.491765211919972</v>
       </c>
       <c r="D46" t="n">
-        <v>0.141463505724063</v>
+        <v>0.122810856743297</v>
       </c>
       <c r="E46" t="n">
-        <v>5.47594310249822</v>
+        <v>-4.00424868745826</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0000000435187516085451</v>
+        <v>0.0000622148901933658</v>
       </c>
       <c r="G46" t="n">
-        <v>0.000000398921889744997</v>
+        <v>0.000279687531824402</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="B47" t="n">
-        <v>4542.66379681615</v>
+        <v>3198.20654158571</v>
       </c>
       <c r="C47" t="n">
-        <v>0.931206533400246</v>
+        <v>0.812524531488209</v>
       </c>
       <c r="D47" t="n">
-        <v>0.147856668978405</v>
+        <v>0.156371201824987</v>
       </c>
       <c r="E47" t="n">
-        <v>6.29803538679916</v>
+        <v>5.19612640950088</v>
       </c>
       <c r="F47" t="n">
-        <v>0.000000000301441706054781</v>
+        <v>0.000000203483918367271</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00000000452162559082171</v>
+        <v>0.00000159880221574284</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B48" t="n">
-        <v>2263.52306077586</v>
+        <v>4501.05804037257</v>
       </c>
       <c r="C48" t="n">
-        <v>0.520064701653626</v>
+        <v>0.958218658327958</v>
       </c>
       <c r="D48" t="n">
-        <v>0.100331333870928</v>
+        <v>0.162471524671495</v>
       </c>
       <c r="E48" t="n">
-        <v>5.18347241672944</v>
+        <v>5.89776368668541</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000000217792451046246</v>
+        <v>0.0000000036846115530566</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00000165445079346617</v>
+        <v>0.000000055269173295849</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B49" t="n">
-        <v>2467.32103554137</v>
+        <v>3290.80634432004</v>
       </c>
       <c r="C49" t="n">
-        <v>0.858291519526039</v>
+        <v>0.215007722137241</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102654813782375</v>
+        <v>0.0891100508262116</v>
       </c>
       <c r="E49" t="n">
-        <v>8.3609476058823</v>
+        <v>2.41283357089048</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0000000000000000622164748743757</v>
+        <v>0.0158290456339309</v>
       </c>
       <c r="G49" t="n">
-        <v>0.000000000000010265718354272</v>
+        <v>0.0352944936432244</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B50" t="n">
-        <v>2749.66494359477</v>
+        <v>2248.5462560032</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.290648524285897</v>
+        <v>0.540216206993245</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0700126699183051</v>
+        <v>0.101581942935737</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.15137038231855</v>
+        <v>5.31803380975885</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0000330490418773241</v>
+        <v>0.000000104894580866617</v>
       </c>
       <c r="G50" t="n">
-        <v>0.000151977117842706</v>
+        <v>0.000000874343957676198</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" t="n">
-        <v>3883.53464464444</v>
+        <v>2398.78030098242</v>
       </c>
       <c r="C51" t="n">
-        <v>0.372393598446848</v>
+        <v>0.875796886628581</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114245158387188</v>
+        <v>0.109744666437716</v>
       </c>
       <c r="E51" t="n">
-        <v>3.25960070171876</v>
+        <v>7.980313896399</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00111569165556479</v>
+        <v>0.00000000000000145961619088123</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00340905783644798</v>
+        <v>0.000000000000120418335747702</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B52" t="n">
-        <v>2986.77571146269</v>
+        <v>2674.77711321578</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.500215908842233</v>
+        <v>-0.272417488728755</v>
       </c>
       <c r="D52" t="n">
-        <v>0.130841751345848</v>
+        <v>0.0749241937389438</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.82306032819781</v>
+        <v>-3.63590817777674</v>
       </c>
       <c r="F52" t="n">
-        <v>0.000131805514554752</v>
+        <v>0.000277002995923748</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00055763871542395</v>
+        <v>0.000993597702769964</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="B53" t="n">
-        <v>2828.44643300489</v>
+        <v>3659.26967698857</v>
       </c>
       <c r="C53" t="n">
-        <v>0.379021668798974</v>
+        <v>0.431417837781226</v>
       </c>
       <c r="D53" t="n">
-        <v>0.13447092826712</v>
+        <v>0.116556763991573</v>
       </c>
       <c r="E53" t="n">
-        <v>2.81861420667869</v>
+        <v>3.70135394126434</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00482314494829589</v>
+        <v>0.000214452088575589</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0128357889753036</v>
+        <v>0.000797961673045969</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B54" t="n">
-        <v>2050.23540361357</v>
+        <v>2989.01732711208</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.190101930531921</v>
+        <v>-0.507466822859255</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0817211155937102</v>
+        <v>0.143622044815019</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.32622779499296</v>
+        <v>-3.53334910050095</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0200064016217952</v>
+        <v>0.000410330256619784</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0410965009751311</v>
+        <v>0.00144052111366519</v>
       </c>
     </row>
     <row r="55">
@@ -4034,22 +4034,22 @@
         <v>22</v>
       </c>
       <c r="B55" t="n">
-        <v>3244.36631776201</v>
+        <v>3140.68184158604</v>
       </c>
       <c r="C55" t="n">
-        <v>0.461921734415239</v>
+        <v>0.540323356978823</v>
       </c>
       <c r="D55" t="n">
-        <v>0.125578390727525</v>
+        <v>0.128767487514553</v>
       </c>
       <c r="E55" t="n">
-        <v>3.67835367007925</v>
+        <v>4.19611632880355</v>
       </c>
       <c r="F55" t="n">
-        <v>0.000234744305682343</v>
+        <v>0.0000271530821772388</v>
       </c>
       <c r="G55" t="n">
-        <v>0.000842017618208404</v>
+        <v>0.000134470443937684</v>
       </c>
     </row>
     <row r="56">
@@ -4057,22 +4057,22 @@
         <v>127</v>
       </c>
       <c r="B56" t="n">
-        <v>1899.03877583482</v>
+        <v>1867.0220298102</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25281543803426</v>
+        <v>0.298338995664071</v>
       </c>
       <c r="D56" t="n">
-        <v>0.109941272909649</v>
+        <v>0.119060051887838</v>
       </c>
       <c r="E56" t="n">
-        <v>2.2995498536935</v>
+        <v>2.50578586968134</v>
       </c>
       <c r="F56" t="n">
-        <v>0.021473735871772</v>
+        <v>0.0122179587548171</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0426887520342455</v>
+        <v>0.0287994742077831</v>
       </c>
     </row>
     <row r="57">
@@ -4080,22 +4080,22 @@
         <v>125</v>
       </c>
       <c r="B57" t="n">
-        <v>1194.93922681156</v>
+        <v>1217.54298113027</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.535257216361659</v>
+        <v>-0.592379157253523</v>
       </c>
       <c r="D57" t="n">
-        <v>0.116736824388264</v>
+        <v>0.118263416518174</v>
       </c>
       <c r="E57" t="n">
-        <v>-4.58516170168724</v>
+        <v>-5.00898058498496</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00000453635218960174</v>
+        <v>0.000000547190921642863</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0000258102796994582</v>
+        <v>0.00000392550009004663</v>
       </c>
     </row>
     <row r="58">
@@ -4103,22 +4103,22 @@
         <v>169</v>
       </c>
       <c r="B58" t="n">
-        <v>1987.40142751001</v>
+        <v>1970.29266438077</v>
       </c>
       <c r="C58" t="n">
-        <v>0.630581670088689</v>
+        <v>0.626868382714833</v>
       </c>
       <c r="D58" t="n">
-        <v>0.138534662882424</v>
+        <v>0.148636342583962</v>
       </c>
       <c r="E58" t="n">
-        <v>4.55179705186039</v>
+        <v>4.21746372264727</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00000531896314567903</v>
+        <v>0.0000247065552302323</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0000292542973012347</v>
+        <v>0.000127393175405885</v>
       </c>
     </row>
     <row r="59">
@@ -4126,22 +4126,22 @@
         <v>93</v>
       </c>
       <c r="B59" t="n">
-        <v>4389.09064517735</v>
+        <v>4314.90841959825</v>
       </c>
       <c r="C59" t="n">
-        <v>0.723340549370216</v>
+        <v>0.716406392536635</v>
       </c>
       <c r="D59" t="n">
-        <v>0.124851238585258</v>
+        <v>0.134760174862898</v>
       </c>
       <c r="E59" t="n">
-        <v>5.793619331027</v>
+        <v>5.31615808057157</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00000000688854991745292</v>
+        <v>0.000000105981085778933</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0000000811864811699809</v>
+        <v>0.000000874343957676198</v>
       </c>
     </row>
     <row r="60">
@@ -4149,45 +4149,45 @@
         <v>77</v>
       </c>
       <c r="B60" t="n">
-        <v>2412.76618268719</v>
+        <v>2342.75298138527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.976663632036001</v>
+        <v>1.01454103556423</v>
       </c>
       <c r="D60" t="n">
-        <v>0.140369046849925</v>
+        <v>0.151213381654458</v>
       </c>
       <c r="E60" t="n">
-        <v>6.95782762620166</v>
+        <v>6.70933368769296</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00000000000345559647374128</v>
+        <v>0.0000000000195515111098066</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0000000000633526020185902</v>
+        <v>0.000000000460857047588298</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>1846.05250180309</v>
+        <v>2766.80227571998</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.357183651945382</v>
+        <v>-0.459140201660236</v>
       </c>
       <c r="D61" t="n">
-        <v>0.153754090669917</v>
+        <v>0.200319258267701</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.3230838957787</v>
+        <v>-2.29204224112419</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0201746459332462</v>
+        <v>0.0219032058009346</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0410965009751311</v>
+        <v>0.0469354410020028</v>
       </c>
     </row>
     <row r="62">
@@ -4195,22 +4195,22 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>1994.48931302633</v>
+        <v>1950.19931347296</v>
       </c>
       <c r="C62" t="n">
-        <v>0.935855062816348</v>
+        <v>1.14415613546669</v>
       </c>
       <c r="D62" t="n">
-        <v>0.334689130848593</v>
+        <v>0.365411395674886</v>
       </c>
       <c r="E62" t="n">
-        <v>2.79619197804099</v>
+        <v>3.1311451941818</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00517086747638666</v>
+        <v>0.00174126049020003</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0133891688386765</v>
+        <v>0.0053205181645001</v>
       </c>
     </row>
     <row r="63">
@@ -4218,505 +4218,367 @@
         <v>99</v>
       </c>
       <c r="B63" t="n">
-        <v>1635.0833062071</v>
+        <v>1683.55662819638</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.81797307553221</v>
+        <v>-0.871479006743971</v>
       </c>
       <c r="D63" t="n">
-        <v>0.197072850096492</v>
+        <v>0.210915635388517</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.15061270556401</v>
+        <v>-4.13188432018643</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0000331586438929541</v>
+        <v>0.0000359801494334265</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000151977117842706</v>
+        <v>0.000169620704471868</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B64" t="n">
-        <v>1681.30515211361</v>
+        <v>2207.47782736927</v>
       </c>
       <c r="C64" t="n">
-        <v>0.561837534930254</v>
+        <v>0.491714691312298</v>
       </c>
       <c r="D64" t="n">
-        <v>0.188085033159795</v>
+        <v>0.13288702328421</v>
       </c>
       <c r="E64" t="n">
-        <v>2.98714642782301</v>
+        <v>3.70024611252411</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0028159481240031</v>
+        <v>0.000215390474638087</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00787510916034767</v>
+        <v>0.000797961673045969</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B65" t="n">
-        <v>1578.56723857696</v>
+        <v>1112.27196306182</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.245309823040192</v>
+        <v>2.08212656838694</v>
       </c>
       <c r="D65" t="n">
-        <v>0.105331000212731</v>
+        <v>0.563098331669056</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.32894231085582</v>
+        <v>3.69762517714339</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0198621220610654</v>
+        <v>0.000217625910830719</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0410965009751311</v>
+        <v>0.000797961673045969</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B66" t="n">
-        <v>2164.02527766451</v>
+        <v>160.414969036517</v>
       </c>
       <c r="C66" t="n">
-        <v>0.501059762749934</v>
+        <v>6.31080962850299</v>
       </c>
       <c r="D66" t="n">
-        <v>0.132363127955492</v>
+        <v>0.781766376180367</v>
       </c>
       <c r="E66" t="n">
-        <v>3.78549351688348</v>
+        <v>8.07250071221658</v>
       </c>
       <c r="F66" t="n">
-        <v>0.000153403833715358</v>
+        <v>0.000000000000000688727702513741</v>
       </c>
       <c r="G66" t="n">
-        <v>0.000613136307935451</v>
+        <v>0.000000000000113640070914767</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="B67" t="n">
-        <v>1170.15076776468</v>
+        <v>932.339376042293</v>
       </c>
       <c r="C67" t="n">
-        <v>1.9053329972031</v>
+        <v>1.16341092015745</v>
       </c>
       <c r="D67" t="n">
-        <v>0.512915537621336</v>
+        <v>0.375997792144233</v>
       </c>
       <c r="E67" t="n">
-        <v>3.71471101468119</v>
+        <v>3.09419614812835</v>
       </c>
       <c r="F67" t="n">
-        <v>0.000203436048926138</v>
+        <v>0.00197346966314614</v>
       </c>
       <c r="G67" t="n">
-        <v>0.000745932179395838</v>
+        <v>0.00592040898943843</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="B68" t="n">
-        <v>145.736996764115</v>
+        <v>1153.78042243434</v>
       </c>
       <c r="C68" t="n">
-        <v>6.3407359059788</v>
+        <v>1.13277921774</v>
       </c>
       <c r="D68" t="n">
-        <v>0.773233258728883</v>
+        <v>0.196191800157322</v>
       </c>
       <c r="E68" t="n">
-        <v>8.20028863787148</v>
+        <v>5.77383568952241</v>
       </c>
       <c r="F68" t="n">
-        <v>0.000000000000000239810531218286</v>
+        <v>0.000000007748700173721</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0000000000000197843688255086</v>
+        <v>0.000000098348886820305</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B69" t="n">
-        <v>1022.55540276679</v>
+        <v>1170.49908287205</v>
       </c>
       <c r="C69" t="n">
-        <v>0.975571214395363</v>
+        <v>1.18523558349086</v>
       </c>
       <c r="D69" t="n">
-        <v>0.349068045425528</v>
+        <v>0.51569894353127</v>
       </c>
       <c r="E69" t="n">
-        <v>2.79478808553244</v>
+        <v>2.29830911689466</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00519337457985027</v>
+        <v>0.0215442019340497</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0133891688386765</v>
+        <v>0.0467735963041869</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B70" t="n">
-        <v>1221.09089632281</v>
+        <v>1445.15491498768</v>
       </c>
       <c r="C70" t="n">
-        <v>1.11596796950768</v>
+        <v>1.2077832224255</v>
       </c>
       <c r="D70" t="n">
-        <v>0.182291924081468</v>
+        <v>0.499803492630996</v>
       </c>
       <c r="E70" t="n">
-        <v>6.12187278800648</v>
+        <v>2.41651617132096</v>
       </c>
       <c r="F70" t="n">
-        <v>0.000000000924818484921309</v>
+        <v>0.0156698301657332</v>
       </c>
       <c r="G70" t="n">
-        <v>0.000000012716254167668</v>
+        <v>0.0352944936432244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>1284.51046642438</v>
+        <v>1110.0119900932</v>
       </c>
       <c r="C71" t="n">
-        <v>1.09316713979739</v>
+        <v>0.458840424475033</v>
       </c>
       <c r="D71" t="n">
-        <v>0.475226417878574</v>
+        <v>0.150269088260291</v>
       </c>
       <c r="E71" t="n">
-        <v>2.30030801881201</v>
+        <v>3.0534584976003</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0214307757024941</v>
+        <v>0.00226220010711779</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0426887520342455</v>
+        <v>0.00654847399428835</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B72" t="n">
-        <v>1626.80038167758</v>
+        <v>960.941802357225</v>
       </c>
       <c r="C72" t="n">
-        <v>1.13037406957422</v>
+        <v>0.639590075820902</v>
       </c>
       <c r="D72" t="n">
-        <v>0.462431787607896</v>
+        <v>0.137850125728093</v>
       </c>
       <c r="E72" t="n">
-        <v>2.44441255957233</v>
+        <v>4.63974967336976</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0145088246390195</v>
+        <v>0.0000034883146351673</v>
       </c>
       <c r="G72" t="n">
-        <v>0.030691744428695</v>
+        <v>0.0000205561398143787</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>1134.26036738796</v>
+        <v>1213.34455865418</v>
       </c>
       <c r="C73" t="n">
-        <v>0.448805825280211</v>
+        <v>0.972902704255961</v>
       </c>
       <c r="D73" t="n">
-        <v>0.139595697067787</v>
+        <v>0.304887612251746</v>
       </c>
       <c r="E73" t="n">
-        <v>3.21504053998365</v>
+        <v>3.19102077342727</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00130426101258098</v>
+        <v>0.00141771086445594</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00391278303774295</v>
+        <v>0.00441362816292888</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="B74" t="n">
-        <v>993.919760167338</v>
+        <v>3.49889123359526</v>
       </c>
       <c r="C74" t="n">
-        <v>0.595823190014652</v>
+        <v>2.01252230247506</v>
       </c>
       <c r="D74" t="n">
-        <v>0.125378728462699</v>
+        <v>0.714503996208948</v>
       </c>
       <c r="E74" t="n">
-        <v>4.75218721166017</v>
+        <v>2.81667046392071</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00000201227920181837</v>
+        <v>0.00485242850708381</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0000122972617888901</v>
+        <v>0.0129137210269166</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B75" t="n">
-        <v>1383.93895645315</v>
+        <v>1101.72639993163</v>
       </c>
       <c r="C75" t="n">
-        <v>0.819432357185846</v>
+        <v>0.403346127032517</v>
       </c>
       <c r="D75" t="n">
-        <v>0.295598633847996</v>
+        <v>0.11978449712234</v>
       </c>
       <c r="E75" t="n">
-        <v>2.77211144895622</v>
+        <v>3.36726485248393</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00556939646959268</v>
+        <v>0.000759177392796245</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0139234911739817</v>
+        <v>0.0025052853962276</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>3.40361414293037</v>
+        <v>445.227573253945</v>
       </c>
       <c r="C76" t="n">
-        <v>2.10140092699841</v>
+        <v>1.71490104044786</v>
       </c>
       <c r="D76" t="n">
-        <v>0.666101654802115</v>
+        <v>0.62057375960078</v>
       </c>
       <c r="E76" t="n">
-        <v>3.15477511855559</v>
+        <v>2.76341210680753</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00160621859212033</v>
+        <v>0.00572004954908136</v>
       </c>
       <c r="G76" t="n">
-        <v>0.00473260835178314</v>
+        <v>0.0147470027437254</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>1113.53059949069</v>
+        <v>376.401638700751</v>
       </c>
       <c r="C77" t="n">
-        <v>0.419470409272904</v>
+        <v>1.63581584312816</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112264096285574</v>
+        <v>0.301821255087037</v>
       </c>
       <c r="E77" t="n">
-        <v>3.73646092697231</v>
+        <v>5.41981658202446</v>
       </c>
       <c r="F77" t="n">
-        <v>0.000186628433316683</v>
+        <v>0.0000000596602131900402</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00069985662493756</v>
+        <v>0.00000057905501037392</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B78" t="n">
-        <v>999.010899205259</v>
+        <v>215.370520674094</v>
       </c>
       <c r="C78" t="n">
-        <v>1.89326034234371</v>
+        <v>1.34902202713714</v>
       </c>
       <c r="D78" t="n">
-        <v>0.63376429691317</v>
+        <v>0.47137392092177</v>
       </c>
       <c r="E78" t="n">
-        <v>2.98732565334632</v>
+        <v>2.86189364167438</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00281429764756523</v>
+        <v>0.0042111819813546</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00787510916034767</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" t="n">
-        <v>347.45636173706</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.451927010481832</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.171850301777178</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2.62977141039766</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.00854422985145025</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.0197813052325579</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="n">
-        <v>390.368560429129</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.4530481491578</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.280452230956936</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5.18108964296641</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.000000220593439128822</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.00000165445079346617</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" t="n">
-        <v>420.470700499657</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.22667838070254</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.0875402431799103</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.58941913419954</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.00961379999018881</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.0211503599784154</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" t="n">
-        <v>204.034334902981</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.29178333843654</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.437033369163388</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2.95580024223183</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.00311858998824446</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.00843553029607108</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" t="n">
-        <v>123.129924149095</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.792639172797507</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.300889269936393</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2.63432183196519</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.00843055363357141</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.0197813052325579</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5.32238298226616</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.931220328368006</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.355210265342436</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2.62160308759736</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.00875172898167712</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.0197813052325579</v>
+        <v>0.0117521253230408</v>
       </c>
     </row>
   </sheetData>

--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -3919,7 +3919,7 @@
         <v>150</v>
       </c>
       <c r="B50" t="n">
-        <v>2248.5462560032</v>
+        <v>2248.54625600321</v>
       </c>
       <c r="C50" t="n">
         <v>0.540216206993245</v>
